--- a/raw_data/umd/2023/RL_2023-07-24_SBay3.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-24_SBay3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_24_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F56726-35E1-0E4A-8504-0FA4D2AC4F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A520F88C-0519-A346-BFB2-642B21F581F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="3820" windowWidth="25640" windowHeight="14440" xr2:uid="{2A219EFE-93B2-FC43-B420-A822E1BF2819}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = BBay</t>
-  </si>
-  <si>
-    <t>Location ID = a6a0d220-1bc5-4f21-a916-6af978babc90</t>
-  </si>
-  <si>
-    <t>Latitude = 46.851383 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.17583 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-24 14:09:28</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:59</t>
-  </si>
-  <si>
-    <t>Readings = 60</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043D47FC-EE62-8D41-8BE3-29BB3784EEA9}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,310 +994,1349 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45131.589907407404</v>
+      </c>
+      <c r="B2" s="3">
+        <v>24.20767</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10.99339</v>
+      </c>
+      <c r="D2" s="3">
+        <v>97.167900000000003</v>
+      </c>
+      <c r="E2" s="3">
+        <v>104.416</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.893803E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99795299999999998</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.8034360000000002E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.32989810000000003</v>
+      </c>
+      <c r="J2" s="3">
+        <v>21.376480000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.17360100000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.0286310000000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.122049</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.68411560000000005</v>
+      </c>
+      <c r="O2" s="3">
+        <v>996.34379999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.85889762</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.113712550000002</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45131.589918981481</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.779973</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10.74666</v>
+      </c>
+      <c r="D3" s="3">
+        <v>97.531620000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>104.8125</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.9130439999999997E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99795350000000005</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.80365E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.2729084</v>
+      </c>
+      <c r="J3" s="3">
+        <v>21.375630000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.1738613</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.0292429999999999</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.12223920000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.68393539999999997</v>
+      </c>
+      <c r="O3" s="3">
+        <v>996.34609999999998</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.85889762</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.113712550000002</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45131.589930555558</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.7614319999999992</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10.572369999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>97.383750000000006</v>
+      </c>
+      <c r="E4" s="3">
+        <v>104.74930000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.9099730000000001E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99796680000000004</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.8122479999999999E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.20763670000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>21.318840000000002</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.1737928</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.0239910000000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.12218850000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.69173969999999996</v>
+      </c>
+      <c r="O4" s="3">
+        <v>996.33029999999997</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45131.589942129627</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.7563739999999992</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10.567299999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>97.382530000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>104.7557</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.910283E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99796770000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.8128590000000003E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.2036355</v>
+      </c>
+      <c r="J5" s="3">
+        <v>21.315770000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.17353789999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.0231239999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.1220093</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.69216449999999996</v>
+      </c>
+      <c r="O5" s="3">
+        <v>996.33069999999998</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45131.589953703704</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.7513159999999992</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10.56222</v>
+      </c>
+      <c r="D6" s="3">
+        <v>97.381309999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>104.7621</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.9105929999999999E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99796850000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.8134689999999998E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.19963439999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>21.31269</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.17328289999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.0222560000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.12182999999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.69258940000000002</v>
+      </c>
+      <c r="O6" s="3">
+        <v>996.33119999999997</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45131.589965277781</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.7472779999999997</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10.773479999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>97.37473</v>
+      </c>
+      <c r="E7" s="3">
+        <v>104.84010000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.9143739999999998E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99797349999999996</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.8150420000000003E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.21737529999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>21.294219999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.42063339999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.5982959999999999</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.29573470000000002</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.70050610000000002</v>
+      </c>
+      <c r="O7" s="3">
+        <v>996.32169999999996</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45131.58997685185</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.7457150000000006</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10.779109999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>97.37397</v>
+      </c>
+      <c r="E8" s="3">
+        <v>104.8462</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.9146670000000003E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99797409999999998</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.8153229999999995E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.2164143</v>
+      </c>
+      <c r="J8" s="3">
+        <v>21.291920000000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.43426579999999998</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.629928</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.30531920000000001</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.70111670000000004</v>
+      </c>
+      <c r="O8" s="3">
+        <v>996.32079999999996</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45131.589988425927</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.7441530000000007</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10.784739999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>97.37321</v>
+      </c>
+      <c r="E9" s="3">
+        <v>104.8522</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.9149610000000003E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99797469999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.8156040000000001E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.21545339999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21.28961</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.44789820000000002</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.6615610000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.31490370000000001</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.7017274</v>
+      </c>
+      <c r="O9" s="3">
+        <v>996.31989999999996</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45131.59</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.7154489999999996</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10.688079999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>97.379199999999997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>104.87269999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.9159540000000002E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99797599999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.816846E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.29452479999999998</v>
+      </c>
+      <c r="J10" s="3">
+        <v>21.261700000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.91491679999999997</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2.738251</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.64325060000000001</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.68618579999999996</v>
+      </c>
+      <c r="O10" s="3">
+        <v>996.39769999999999</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45131.590011574073</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.7137560000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10.68769</v>
+      </c>
+      <c r="D11" s="3">
+        <v>97.379369999999994</v>
+      </c>
+      <c r="E11" s="3">
+        <v>104.87569999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.9160969999999998E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99797619999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.8169530000000006E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.29923329999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21.259740000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.9460596</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.8101799999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.66514620000000002</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.68552080000000004</v>
+      </c>
+      <c r="O11" s="3">
+        <v>996.40170000000001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45131.59002314815</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.7120619999999995</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10.687290000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>97.379540000000006</v>
+      </c>
+      <c r="E12" s="3">
+        <v>104.87860000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.9162400000000002E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99797639999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.8170610000000006E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.30394179999999998</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21.25778</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.97720249999999997</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2.8821099999999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.68704180000000004</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.68485580000000001</v>
+      </c>
+      <c r="O12" s="3">
+        <v>996.4058</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45131.59003472222</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.8133990000000004</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10.832710000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>97.318209999999993</v>
+      </c>
+      <c r="E13" s="3">
+        <v>104.7835</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.9116199999999999E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99799289999999996</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.810927E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.25062709999999999</v>
+      </c>
+      <c r="J13" s="3">
+        <v>21.215610000000002</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.4428570000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3.9566720000000002</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.014429</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.70774519999999996</v>
+      </c>
+      <c r="O13" s="3">
+        <v>996.40689999999995</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45131.590046296296</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.8181770000000004</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10.83835</v>
+      </c>
+      <c r="D14" s="3">
+        <v>97.315049999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <v>104.77889999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.911397E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99799389999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.810629E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.24954029999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21.212689999999998</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.478585</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.0390969999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.0395490000000001</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.70862829999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>996.40869999999995</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45131.590057870373</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.8229550000000003</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10.843999999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>97.311880000000002</v>
+      </c>
+      <c r="E15" s="3">
+        <v>104.7743</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.9111740000000001E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99799479999999996</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.8103300000000005E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.24845349999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21.209759999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.514313</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4.1215229999999998</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.0646679999999999</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.70951149999999996</v>
+      </c>
+      <c r="O15" s="3">
+        <v>996.41049999999996</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45131.590069444443</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.7202540000000006</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11.05509</v>
+      </c>
+      <c r="D16" s="3">
+        <v>97.10539</v>
+      </c>
+      <c r="E16" s="3">
+        <v>104.776</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.911256E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.9979983</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.8104419999999999E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.31448769999999998</v>
+      </c>
+      <c r="J16" s="3">
+        <v>21.17512</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.7789429999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.731001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.250721</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.71017839999999999</v>
+      </c>
+      <c r="O16" s="3">
+        <v>996.35760000000005</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45131.590081018519</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.7168109999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>11.06992</v>
+      </c>
+      <c r="D17" s="3">
+        <v>97.092690000000005</v>
+      </c>
+      <c r="E17" s="3">
+        <v>104.7741</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.911161E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99799879999999996</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.8103140000000006E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.31698680000000001</v>
+      </c>
+      <c r="J17" s="3">
+        <v>21.172280000000001</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.803928</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4.7885949999999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.2682880000000001</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.71071280000000003</v>
+      </c>
+      <c r="O17" s="3">
+        <v>996.35469999999998</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45131.590092592596</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.7133669999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>11.08474</v>
+      </c>
+      <c r="D18" s="3">
+        <v>97.079989999999995</v>
+      </c>
+      <c r="E18" s="3">
+        <v>104.77209999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.9110649999999999E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99799939999999998</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.8101880000000004E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.31948599999999999</v>
+      </c>
+      <c r="J18" s="3">
+        <v>21.169429999999998</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.8289139999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4.8461879999999997</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.285855</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.71124719999999997</v>
+      </c>
+      <c r="O18" s="3">
+        <v>996.3519</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45131.590104166666</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.7997879999999995</v>
+      </c>
+      <c r="C19" s="3">
+        <v>11.15119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>97.015709999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>104.7722</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.9110670000000002E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99800599999999995</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.8048590000000006E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.37941989999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>21.12398</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.6249739999999999</v>
+      </c>
+      <c r="L19" s="3">
+        <v>8.2931620000000006</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2.336525</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.73456770000000005</v>
+      </c>
+      <c r="O19" s="3">
+        <v>996.35130000000004</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45131.590115740742</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.8021919999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11.15968</v>
+      </c>
+      <c r="D20" s="3">
+        <v>97.007440000000003</v>
+      </c>
+      <c r="E20" s="3">
+        <v>104.7723</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.9110689999999999E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99800639999999996</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.8045679999999997E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.38424550000000002</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21.12068</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2.6750090000000002</v>
+      </c>
+      <c r="L20" s="3">
+        <v>8.4971720000000008</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.3987150000000002</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.73586430000000003</v>
+      </c>
+      <c r="O20" s="3">
+        <v>996.35</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45131.590127314812</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.8045960000000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>11.16816</v>
+      </c>
+      <c r="D21" s="3">
+        <v>96.999170000000007</v>
+      </c>
+      <c r="E21" s="3">
+        <v>104.7723</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.91107E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99800690000000003</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.8042779999999997E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.3890711</v>
+      </c>
+      <c r="J21" s="3">
+        <v>21.117370000000001</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2.7250429999999999</v>
+      </c>
+      <c r="L21" s="3">
+        <v>8.7011819999999993</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2.460906</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.73716099999999996</v>
+      </c>
+      <c r="O21" s="3">
+        <v>996.34879999999998</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45131.590138888889</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.8003719999999994</v>
+      </c>
+      <c r="C22" s="3">
+        <v>11.164709999999999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>96.760819999999995</v>
+      </c>
+      <c r="E22" s="3">
+        <v>104.7467</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.909811E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99803050000000004</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.8078749999999993E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.32160129999999998</v>
+      </c>
+      <c r="J22" s="3">
+        <v>21.07386</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.0313910000000002</v>
+      </c>
+      <c r="L22" s="3">
+        <v>10.12739</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2.8952290000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.71392230000000001</v>
+      </c>
+      <c r="O22" s="3">
+        <v>996.36689999999999</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.85890655</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.113716969999999</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45131.589907407404</v>
+        <v>45131.590150462966</v>
       </c>
       <c r="B23" s="3">
-        <v>24.20767</v>
+        <v>9.8021189999999994</v>
       </c>
       <c r="C23" s="3">
-        <v>10.99339</v>
+        <v>11.166230000000001</v>
       </c>
       <c r="D23" s="3">
-        <v>97.167900000000003</v>
+        <v>96.746440000000007</v>
       </c>
       <c r="E23" s="3">
-        <v>104.416</v>
+        <v>104.7453</v>
       </c>
       <c r="F23" s="3">
-        <v>4.893803E-2</v>
+        <v>4.9097420000000003E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99795299999999998</v>
+        <v>0.99803200000000003</v>
       </c>
       <c r="H23" s="3">
-        <v>6.8034360000000002E-2</v>
+        <v>6.8079420000000002E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.32989810000000003</v>
+        <v>0.31941910000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>21.376480000000001</v>
+        <v>21.070440000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>0.17360100000000001</v>
+        <v>4.1200510000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>1.0286310000000001</v>
+        <v>10.28457</v>
       </c>
       <c r="M23" s="3">
-        <v>0.122049</v>
+        <v>2.9431189999999998</v>
       </c>
       <c r="N23" s="3">
-        <v>0.68411560000000005</v>
+        <v>0.71322890000000005</v>
       </c>
       <c r="O23" s="3">
-        <v>996.34379999999999</v>
+        <v>996.36789999999996</v>
       </c>
       <c r="P23" s="3">
-        <v>46.85889762</v>
+        <v>46.85890655</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.113712550000002</v>
+        <v>-91.113716969999999</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45131.589918981481</v>
+        <v>45131.590162037035</v>
       </c>
       <c r="B24" s="3">
-        <v>1.779973</v>
+        <v>9.8038670000000003</v>
       </c>
       <c r="C24" s="3">
-        <v>10.74666</v>
+        <v>11.167759999999999</v>
       </c>
       <c r="D24" s="3">
-        <v>97.531620000000004</v>
+        <v>96.732060000000004</v>
       </c>
       <c r="E24" s="3">
-        <v>104.8125</v>
+        <v>104.7439</v>
       </c>
       <c r="F24" s="3">
-        <v>4.9130439999999997E-2</v>
+        <v>4.909674E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99795350000000005</v>
+        <v>0.99803339999999996</v>
       </c>
       <c r="H24" s="3">
-        <v>6.80365E-2</v>
+        <v>6.8080089999999996E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.2729084</v>
+        <v>0.31723689999999999</v>
       </c>
       <c r="J24" s="3">
-        <v>21.375630000000001</v>
+        <v>21.067019999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>0.1738613</v>
+        <v>4.2087110000000001</v>
       </c>
       <c r="L24" s="3">
-        <v>1.0292429999999999</v>
+        <v>10.44176</v>
       </c>
       <c r="M24" s="3">
-        <v>0.12223920000000001</v>
+        <v>2.9910079999999999</v>
       </c>
       <c r="N24" s="3">
-        <v>0.68393539999999997</v>
+        <v>0.71253560000000005</v>
       </c>
       <c r="O24" s="3">
-        <v>996.34609999999998</v>
+        <v>996.36879999999996</v>
       </c>
       <c r="P24" s="3">
-        <v>46.85889762</v>
+        <v>46.85890655</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.113712550000002</v>
+        <v>-91.113716969999999</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45131.589930555558</v>
+        <v>45131.590173611112</v>
       </c>
       <c r="B25" s="3">
-        <v>9.7614319999999992</v>
+        <v>9.8254230000000007</v>
       </c>
       <c r="C25" s="3">
-        <v>10.572369999999999</v>
+        <v>11.2257</v>
       </c>
       <c r="D25" s="3">
-        <v>97.383750000000006</v>
+        <v>96.601159999999993</v>
       </c>
       <c r="E25" s="3">
-        <v>104.74930000000001</v>
+        <v>104.7226</v>
       </c>
       <c r="F25" s="3">
-        <v>4.9099730000000001E-2</v>
+        <v>4.9086270000000001E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99796680000000004</v>
+        <v>0.99804539999999997</v>
       </c>
       <c r="H25" s="3">
-        <v>6.8122479999999999E-2</v>
+        <v>6.806798E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.20763670000000001</v>
+        <v>0.30302430000000002</v>
       </c>
       <c r="J25" s="3">
-        <v>21.318840000000002</v>
+        <v>20.947150000000001</v>
       </c>
       <c r="K25" s="3">
-        <v>0.1737928</v>
+        <v>4.6472680000000004</v>
       </c>
       <c r="L25" s="3">
-        <v>1.0239910000000001</v>
+        <v>11.400230000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>0.12218850000000001</v>
+        <v>3.2831359999999998</v>
       </c>
       <c r="N25" s="3">
-        <v>0.69173969999999996</v>
+        <v>0.71961019999999998</v>
       </c>
       <c r="O25" s="3">
-        <v>996.33029999999997</v>
+        <v>996.35170000000005</v>
       </c>
       <c r="P25" s="3">
         <v>46.85890655</v>
@@ -1352,49 +2348,49 @@
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45131.589942129627</v>
+        <v>45131.590185185189</v>
       </c>
       <c r="B26" s="3">
-        <v>9.7563739999999992</v>
+        <v>9.8265370000000001</v>
       </c>
       <c r="C26" s="3">
-        <v>10.567299999999999</v>
+        <v>11.228910000000001</v>
       </c>
       <c r="D26" s="3">
-        <v>97.382530000000003</v>
+        <v>96.588650000000001</v>
       </c>
       <c r="E26" s="3">
-        <v>104.7557</v>
+        <v>104.7209</v>
       </c>
       <c r="F26" s="3">
-        <v>4.910283E-2</v>
+        <v>4.9085419999999998E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99796770000000001</v>
+        <v>0.99804660000000001</v>
       </c>
       <c r="H26" s="3">
-        <v>6.8128590000000003E-2</v>
+        <v>6.806806E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.2036355</v>
+        <v>0.30083599999999999</v>
       </c>
       <c r="J26" s="3">
-        <v>21.315770000000001</v>
+        <v>20.939620000000001</v>
       </c>
       <c r="K26" s="3">
-        <v>0.17353789999999999</v>
+        <v>4.7006709999999998</v>
       </c>
       <c r="L26" s="3">
-        <v>1.0231239999999999</v>
+        <v>11.48686</v>
       </c>
       <c r="M26" s="3">
-        <v>0.1220093</v>
+        <v>3.3095300000000001</v>
       </c>
       <c r="N26" s="3">
-        <v>0.69216449999999996</v>
+        <v>0.71950270000000005</v>
       </c>
       <c r="O26" s="3">
-        <v>996.33069999999998</v>
+        <v>996.35109999999997</v>
       </c>
       <c r="P26" s="3">
         <v>46.85890655</v>
@@ -1406,49 +2402,49 @@
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45131.589953703704</v>
+        <v>45131.590196759258</v>
       </c>
       <c r="B27" s="3">
-        <v>9.7513159999999992</v>
+        <v>9.8276509999999995</v>
       </c>
       <c r="C27" s="3">
-        <v>10.56222</v>
+        <v>11.23212</v>
       </c>
       <c r="D27" s="3">
-        <v>97.381309999999999</v>
+        <v>96.576139999999995</v>
       </c>
       <c r="E27" s="3">
-        <v>104.7621</v>
+        <v>104.7192</v>
       </c>
       <c r="F27" s="3">
-        <v>4.9105929999999999E-2</v>
+        <v>4.9084570000000001E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99796850000000004</v>
+        <v>0.99804780000000004</v>
       </c>
       <c r="H27" s="3">
-        <v>6.8134689999999998E-2</v>
+        <v>6.8068149999999994E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.19963439999999999</v>
+        <v>0.29864770000000002</v>
       </c>
       <c r="J27" s="3">
-        <v>21.31269</v>
+        <v>20.932079999999999</v>
       </c>
       <c r="K27" s="3">
-        <v>0.17328289999999999</v>
+        <v>4.7540740000000001</v>
       </c>
       <c r="L27" s="3">
-        <v>1.0222560000000001</v>
+        <v>11.57348</v>
       </c>
       <c r="M27" s="3">
-        <v>0.12182999999999999</v>
+        <v>3.3359230000000002</v>
       </c>
       <c r="N27" s="3">
-        <v>0.69258940000000002</v>
+        <v>0.71939529999999996</v>
       </c>
       <c r="O27" s="3">
-        <v>996.33119999999997</v>
+        <v>996.35050000000001</v>
       </c>
       <c r="P27" s="3">
         <v>46.85890655</v>
@@ -1460,49 +2456,49 @@
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45131.589965277781</v>
+        <v>45131.590208333335</v>
       </c>
       <c r="B28" s="3">
-        <v>9.7472779999999997</v>
+        <v>9.6639510000000008</v>
       </c>
       <c r="C28" s="3">
-        <v>10.773479999999999</v>
+        <v>11.290179999999999</v>
       </c>
       <c r="D28" s="3">
-        <v>97.37473</v>
+        <v>94.617729999999995</v>
       </c>
       <c r="E28" s="3">
-        <v>104.84010000000001</v>
+        <v>102.88379999999999</v>
       </c>
       <c r="F28" s="3">
-        <v>4.9143739999999998E-2</v>
+        <v>4.8194229999999998E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99797349999999996</v>
+        <v>0.99812849999999997</v>
       </c>
       <c r="H28" s="3">
-        <v>6.8150420000000003E-2</v>
+        <v>6.6412330000000006E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.21737529999999999</v>
+        <v>0.43117080000000002</v>
       </c>
       <c r="J28" s="3">
-        <v>21.294219999999999</v>
+        <v>20.794989999999999</v>
       </c>
       <c r="K28" s="3">
-        <v>0.42063339999999999</v>
+        <v>5.5865020000000003</v>
       </c>
       <c r="L28" s="3">
-        <v>1.5982959999999999</v>
+        <v>13.514290000000001</v>
       </c>
       <c r="M28" s="3">
-        <v>0.29573470000000002</v>
+        <v>3.9277009999999999</v>
       </c>
       <c r="N28" s="3">
-        <v>0.70050610000000002</v>
+        <v>0.72768140000000003</v>
       </c>
       <c r="O28" s="3">
-        <v>996.32169999999996</v>
+        <v>996.39409999999998</v>
       </c>
       <c r="P28" s="3">
         <v>46.85890655</v>
@@ -1514,49 +2510,49 @@
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45131.58997685185</v>
+        <v>45131.590219907404</v>
       </c>
       <c r="B29" s="3">
-        <v>9.7457150000000006</v>
+        <v>9.6555319999999991</v>
       </c>
       <c r="C29" s="3">
-        <v>10.779109999999999</v>
+        <v>11.294700000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>97.37397</v>
+        <v>94.507639999999995</v>
       </c>
       <c r="E29" s="3">
-        <v>104.8462</v>
+        <v>102.783</v>
       </c>
       <c r="F29" s="3">
-        <v>4.9146670000000003E-2</v>
+        <v>4.8145350000000003E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99797409999999998</v>
+        <v>0.99813320000000005</v>
       </c>
       <c r="H29" s="3">
-        <v>6.8153229999999995E-2</v>
+        <v>6.632159E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.2164143</v>
+        <v>0.43808419999999998</v>
       </c>
       <c r="J29" s="3">
-        <v>21.291920000000001</v>
+        <v>20.78473</v>
       </c>
       <c r="K29" s="3">
-        <v>0.43426579999999998</v>
+        <v>5.6427759999999996</v>
       </c>
       <c r="L29" s="3">
-        <v>1.629928</v>
+        <v>13.64406</v>
       </c>
       <c r="M29" s="3">
-        <v>0.30531920000000001</v>
+        <v>3.967266</v>
       </c>
       <c r="N29" s="3">
-        <v>0.70111670000000004</v>
+        <v>0.72829639999999995</v>
       </c>
       <c r="O29" s="3">
-        <v>996.32079999999996</v>
+        <v>996.39610000000005</v>
       </c>
       <c r="P29" s="3">
         <v>46.85890655</v>
@@ -1568,49 +2564,49 @@
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45131.589988425927</v>
+        <v>45131.590231481481</v>
       </c>
       <c r="B30" s="3">
-        <v>9.7441530000000007</v>
+        <v>9.6471140000000002</v>
       </c>
       <c r="C30" s="3">
-        <v>10.784739999999999</v>
+        <v>11.29923</v>
       </c>
       <c r="D30" s="3">
-        <v>97.37321</v>
+        <v>94.397549999999995</v>
       </c>
       <c r="E30" s="3">
-        <v>104.8522</v>
+        <v>102.6823</v>
       </c>
       <c r="F30" s="3">
-        <v>4.9149610000000003E-2</v>
+        <v>4.8096470000000002E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99797469999999999</v>
+        <v>0.99813799999999997</v>
       </c>
       <c r="H30" s="3">
-        <v>6.8156040000000001E-2</v>
+        <v>6.6230849999999994E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.21545339999999999</v>
+        <v>0.44499759999999999</v>
       </c>
       <c r="J30" s="3">
-        <v>21.28961</v>
+        <v>20.774470000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>0.44789820000000002</v>
+        <v>5.6990489999999996</v>
       </c>
       <c r="L30" s="3">
-        <v>1.6615610000000001</v>
+        <v>13.77383</v>
       </c>
       <c r="M30" s="3">
-        <v>0.31490370000000001</v>
+        <v>4.0068299999999999</v>
       </c>
       <c r="N30" s="3">
-        <v>0.7017274</v>
+        <v>0.72891139999999999</v>
       </c>
       <c r="O30" s="3">
-        <v>996.31989999999996</v>
+        <v>996.3981</v>
       </c>
       <c r="P30" s="3">
         <v>46.85890655</v>
@@ -1622,49 +2618,49 @@
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45131.59</v>
+        <v>45131.590243055558</v>
       </c>
       <c r="B31" s="3">
-        <v>9.7154489999999996</v>
+        <v>9.6952189999999998</v>
       </c>
       <c r="C31" s="3">
-        <v>10.688079999999999</v>
+        <v>11.423209999999999</v>
       </c>
       <c r="D31" s="3">
-        <v>97.379199999999997</v>
+        <v>92.297520000000006</v>
       </c>
       <c r="E31" s="3">
-        <v>104.87269999999999</v>
+        <v>101.52249999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>4.9159540000000002E-2</v>
+        <v>4.753164E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99797599999999997</v>
+        <v>0.99819829999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>6.816846E-2</v>
+        <v>6.5937179999999998E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.29452479999999998</v>
+        <v>0.4465807</v>
       </c>
       <c r="J31" s="3">
-        <v>21.261700000000001</v>
+        <v>20.529630000000001</v>
       </c>
       <c r="K31" s="3">
-        <v>0.91491679999999997</v>
+        <v>6.0793290000000004</v>
       </c>
       <c r="L31" s="3">
-        <v>2.738251</v>
+        <v>14.65169</v>
       </c>
       <c r="M31" s="3">
-        <v>0.64325060000000001</v>
+        <v>4.2741930000000004</v>
       </c>
       <c r="N31" s="3">
-        <v>0.68618579999999996</v>
+        <v>0.71299880000000004</v>
       </c>
       <c r="O31" s="3">
-        <v>996.39769999999999</v>
+        <v>996.36350000000004</v>
       </c>
       <c r="P31" s="3">
         <v>46.85890655</v>
@@ -1676,49 +2672,49 @@
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45131.590011574073</v>
+        <v>45131.590254629627</v>
       </c>
       <c r="B32" s="3">
-        <v>9.7137560000000001</v>
+        <v>9.6940310000000007</v>
       </c>
       <c r="C32" s="3">
-        <v>10.68769</v>
+        <v>11.431290000000001</v>
       </c>
       <c r="D32" s="3">
-        <v>97.379369999999994</v>
+        <v>92.138630000000006</v>
       </c>
       <c r="E32" s="3">
-        <v>104.87569999999999</v>
+        <v>101.4173</v>
       </c>
       <c r="F32" s="3">
-        <v>4.9160969999999998E-2</v>
+        <v>4.7480500000000002E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99797619999999998</v>
+        <v>0.99820350000000002</v>
       </c>
       <c r="H32" s="3">
-        <v>6.8169530000000006E-2</v>
+        <v>6.5882910000000003E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.29923329999999998</v>
+        <v>0.44971179999999999</v>
       </c>
       <c r="J32" s="3">
-        <v>21.259740000000001</v>
+        <v>20.51314</v>
       </c>
       <c r="K32" s="3">
-        <v>0.9460596</v>
+        <v>6.1199070000000004</v>
       </c>
       <c r="L32" s="3">
-        <v>2.8101799999999999</v>
+        <v>14.74531</v>
       </c>
       <c r="M32" s="3">
-        <v>0.66514620000000002</v>
+        <v>4.3027230000000003</v>
       </c>
       <c r="N32" s="3">
-        <v>0.68552080000000004</v>
+        <v>0.71233199999999997</v>
       </c>
       <c r="O32" s="3">
-        <v>996.40170000000001</v>
+        <v>996.36249999999995</v>
       </c>
       <c r="P32" s="3">
         <v>46.85890655</v>
@@ -1730,49 +2726,49 @@
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45131.59002314815</v>
+        <v>45131.590266203704</v>
       </c>
       <c r="B33" s="3">
-        <v>9.7120619999999995</v>
+        <v>9.6928420000000006</v>
       </c>
       <c r="C33" s="3">
-        <v>10.687290000000001</v>
+        <v>11.43937</v>
       </c>
       <c r="D33" s="3">
-        <v>97.379540000000006</v>
+        <v>91.979749999999996</v>
       </c>
       <c r="E33" s="3">
-        <v>104.87860000000001</v>
+        <v>101.3121</v>
       </c>
       <c r="F33" s="3">
-        <v>4.9162400000000002E-2</v>
+        <v>4.7429369999999998E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99797639999999999</v>
+        <v>0.9982086</v>
       </c>
       <c r="H33" s="3">
-        <v>6.8170610000000006E-2</v>
+        <v>6.5828639999999994E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.30394179999999998</v>
+        <v>0.45284279999999999</v>
       </c>
       <c r="J33" s="3">
-        <v>21.25778</v>
+        <v>20.496639999999999</v>
       </c>
       <c r="K33" s="3">
-        <v>0.97720249999999997</v>
+        <v>6.1604859999999997</v>
       </c>
       <c r="L33" s="3">
-        <v>2.8821099999999999</v>
+        <v>14.838939999999999</v>
       </c>
       <c r="M33" s="3">
-        <v>0.68704180000000004</v>
+        <v>4.3312530000000002</v>
       </c>
       <c r="N33" s="3">
-        <v>0.68485580000000001</v>
+        <v>0.7116652</v>
       </c>
       <c r="O33" s="3">
-        <v>996.4058</v>
+        <v>996.36170000000004</v>
       </c>
       <c r="P33" s="3">
         <v>46.85890655</v>
@@ -1784,49 +2780,49 @@
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45131.59003472222</v>
+        <v>45131.590277777781</v>
       </c>
       <c r="B34" s="3">
-        <v>9.8133990000000004</v>
+        <v>9.6848810000000007</v>
       </c>
       <c r="C34" s="3">
-        <v>10.832710000000001</v>
+        <v>11.43586</v>
       </c>
       <c r="D34" s="3">
-        <v>97.318209999999993</v>
+        <v>91.468239999999994</v>
       </c>
       <c r="E34" s="3">
-        <v>104.7835</v>
+        <v>101.20820000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>4.9116199999999999E-2</v>
+        <v>4.7377500000000003E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99799289999999996</v>
+        <v>0.99825189999999997</v>
       </c>
       <c r="H34" s="3">
-        <v>6.810927E-2</v>
+        <v>6.5773410000000004E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.25062709999999999</v>
+        <v>0.48619119999999999</v>
       </c>
       <c r="J34" s="3">
-        <v>21.215610000000002</v>
+        <v>19.992439999999998</v>
       </c>
       <c r="K34" s="3">
-        <v>1.4428570000000001</v>
+        <v>6.689737</v>
       </c>
       <c r="L34" s="3">
-        <v>3.9566720000000002</v>
+        <v>16.059760000000001</v>
       </c>
       <c r="M34" s="3">
-        <v>1.014429</v>
+        <v>4.7033529999999999</v>
       </c>
       <c r="N34" s="3">
-        <v>0.70774519999999996</v>
+        <v>0.72728459999999995</v>
       </c>
       <c r="O34" s="3">
-        <v>996.40689999999995</v>
+        <v>996.34299999999996</v>
       </c>
       <c r="P34" s="3">
         <v>46.85890655</v>
@@ -1838,49 +2834,49 @@
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45131.590046296296</v>
+        <v>45131.590289351851</v>
       </c>
       <c r="B35" s="3">
-        <v>9.8181770000000004</v>
+        <v>9.6853870000000004</v>
       </c>
       <c r="C35" s="3">
-        <v>10.83835</v>
+        <v>11.43858</v>
       </c>
       <c r="D35" s="3">
-        <v>97.315049999999999</v>
+        <v>91.390630000000002</v>
       </c>
       <c r="E35" s="3">
-        <v>104.77889999999999</v>
+        <v>101.1742</v>
       </c>
       <c r="F35" s="3">
-        <v>4.911397E-2</v>
+        <v>4.7360899999999997E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99799389999999999</v>
+        <v>0.99825569999999997</v>
       </c>
       <c r="H35" s="3">
-        <v>6.810629E-2</v>
+        <v>6.5762009999999996E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.24954029999999999</v>
+        <v>0.4881625</v>
       </c>
       <c r="J35" s="3">
-        <v>21.212689999999998</v>
+        <v>19.959399999999999</v>
       </c>
       <c r="K35" s="3">
-        <v>1.478585</v>
+        <v>6.7280899999999999</v>
       </c>
       <c r="L35" s="3">
-        <v>4.0390969999999999</v>
+        <v>16.148250000000001</v>
       </c>
       <c r="M35" s="3">
-        <v>1.0395490000000001</v>
+        <v>4.7303179999999996</v>
       </c>
       <c r="N35" s="3">
-        <v>0.70862829999999999</v>
+        <v>0.72777829999999999</v>
       </c>
       <c r="O35" s="3">
-        <v>996.40869999999995</v>
+        <v>996.34119999999996</v>
       </c>
       <c r="P35" s="3">
         <v>46.85890655</v>
@@ -1892,49 +2888,49 @@
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45131.590057870373</v>
+        <v>45131.590300925927</v>
       </c>
       <c r="B36" s="3">
-        <v>9.8229550000000003</v>
+        <v>9.6858920000000008</v>
       </c>
       <c r="C36" s="3">
-        <v>10.843999999999999</v>
+        <v>11.4413</v>
       </c>
       <c r="D36" s="3">
-        <v>97.311880000000002</v>
+        <v>91.313019999999995</v>
       </c>
       <c r="E36" s="3">
-        <v>104.7743</v>
+        <v>101.14019999999999</v>
       </c>
       <c r="F36" s="3">
-        <v>4.9111740000000001E-2</v>
+        <v>4.7344289999999997E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99799479999999996</v>
+        <v>0.99825949999999997</v>
       </c>
       <c r="H36" s="3">
-        <v>6.8103300000000005E-2</v>
+        <v>6.5750610000000001E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.24845349999999999</v>
+        <v>0.49013370000000001</v>
       </c>
       <c r="J36" s="3">
-        <v>21.209759999999999</v>
+        <v>19.926349999999999</v>
       </c>
       <c r="K36" s="3">
-        <v>1.514313</v>
+        <v>6.7664429999999998</v>
       </c>
       <c r="L36" s="3">
-        <v>4.1215229999999998</v>
+        <v>16.236730000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>1.0646679999999999</v>
+        <v>4.7572830000000002</v>
       </c>
       <c r="N36" s="3">
-        <v>0.70951149999999996</v>
+        <v>0.72827209999999998</v>
       </c>
       <c r="O36" s="3">
-        <v>996.41049999999996</v>
+        <v>996.33950000000004</v>
       </c>
       <c r="P36" s="3">
         <v>46.85890655</v>
@@ -1946,49 +2942,49 @@
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45131.590069444443</v>
+        <v>45131.590312499997</v>
       </c>
       <c r="B37" s="3">
-        <v>9.7202540000000006</v>
+        <v>9.6726989999999997</v>
       </c>
       <c r="C37" s="3">
-        <v>11.05509</v>
+        <v>11.62571</v>
       </c>
       <c r="D37" s="3">
-        <v>97.10539</v>
+        <v>90.935580000000002</v>
       </c>
       <c r="E37" s="3">
-        <v>104.776</v>
+        <v>101.2589</v>
       </c>
       <c r="F37" s="3">
-        <v>4.911256E-2</v>
+        <v>4.7470680000000001E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.9979983</v>
+        <v>0.99834279999999997</v>
       </c>
       <c r="H37" s="3">
-        <v>6.8104419999999999E-2</v>
+        <v>6.5915319999999999E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.31448769999999998</v>
+        <v>0.45022259999999997</v>
       </c>
       <c r="J37" s="3">
-        <v>21.17512</v>
+        <v>19.669550000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>1.7789429999999999</v>
+        <v>7.6505590000000003</v>
       </c>
       <c r="L37" s="3">
-        <v>4.731001</v>
+        <v>18.274750000000001</v>
       </c>
       <c r="M37" s="3">
-        <v>1.250721</v>
+        <v>5.3788780000000003</v>
       </c>
       <c r="N37" s="3">
-        <v>0.71017839999999999</v>
+        <v>0.72070369999999995</v>
       </c>
       <c r="O37" s="3">
-        <v>996.35760000000005</v>
+        <v>996.3664</v>
       </c>
       <c r="P37" s="3">
         <v>46.85890655</v>
@@ -2000,49 +2996,49 @@
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45131.590081018519</v>
+        <v>45131.590324074074</v>
       </c>
       <c r="B38" s="3">
-        <v>9.7168109999999999</v>
+        <v>9.6717820000000003</v>
       </c>
       <c r="C38" s="3">
-        <v>11.06992</v>
+        <v>11.63556</v>
       </c>
       <c r="D38" s="3">
-        <v>97.092690000000005</v>
+        <v>90.900760000000005</v>
       </c>
       <c r="E38" s="3">
-        <v>104.7741</v>
+        <v>101.26090000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>4.911161E-2</v>
+        <v>4.747523E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99799879999999996</v>
+        <v>0.99834840000000002</v>
       </c>
       <c r="H38" s="3">
-        <v>6.8103140000000006E-2</v>
+        <v>6.5921720000000003E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.31698680000000001</v>
+        <v>0.44893919999999998</v>
       </c>
       <c r="J38" s="3">
-        <v>21.172280000000001</v>
+        <v>19.643940000000001</v>
       </c>
       <c r="K38" s="3">
-        <v>1.803928</v>
+        <v>7.7105379999999997</v>
       </c>
       <c r="L38" s="3">
-        <v>4.7885949999999999</v>
+        <v>18.413039999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>1.2682880000000001</v>
+        <v>5.4210479999999999</v>
       </c>
       <c r="N38" s="3">
-        <v>0.71071280000000003</v>
+        <v>0.72065219999999997</v>
       </c>
       <c r="O38" s="3">
-        <v>996.35469999999998</v>
+        <v>996.36739999999998</v>
       </c>
       <c r="P38" s="3">
         <v>46.85890655</v>
@@ -2054,49 +3050,49 @@
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45131.590092592596</v>
+        <v>45131.59033564815</v>
       </c>
       <c r="B39" s="3">
-        <v>9.7133669999999999</v>
+        <v>9.6708649999999992</v>
       </c>
       <c r="C39" s="3">
-        <v>11.08474</v>
+        <v>11.64542</v>
       </c>
       <c r="D39" s="3">
-        <v>97.079989999999995</v>
+        <v>90.865939999999995</v>
       </c>
       <c r="E39" s="3">
-        <v>104.77209999999999</v>
+        <v>101.2628</v>
       </c>
       <c r="F39" s="3">
-        <v>4.9110649999999999E-2</v>
+        <v>4.7479779999999999E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99799939999999998</v>
+        <v>0.99835379999999996</v>
       </c>
       <c r="H39" s="3">
-        <v>6.8101880000000004E-2</v>
+        <v>6.5928120000000007E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.31948599999999999</v>
+        <v>0.4476559</v>
       </c>
       <c r="J39" s="3">
-        <v>21.169429999999998</v>
+        <v>19.61833</v>
       </c>
       <c r="K39" s="3">
-        <v>1.8289139999999999</v>
+        <v>7.7705169999999999</v>
       </c>
       <c r="L39" s="3">
-        <v>4.8461879999999997</v>
+        <v>18.55132</v>
       </c>
       <c r="M39" s="3">
-        <v>1.285855</v>
+        <v>5.4632170000000002</v>
       </c>
       <c r="N39" s="3">
-        <v>0.71124719999999997</v>
+        <v>0.72060069999999998</v>
       </c>
       <c r="O39" s="3">
-        <v>996.3519</v>
+        <v>996.36839999999995</v>
       </c>
       <c r="P39" s="3">
         <v>46.85890655</v>
@@ -2108,49 +3104,49 @@
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45131.590104166666</v>
+        <v>45131.59034722222</v>
       </c>
       <c r="B40" s="3">
-        <v>9.7997879999999995</v>
+        <v>9.6166979999999995</v>
       </c>
       <c r="C40" s="3">
-        <v>11.15119</v>
+        <v>11.460599999999999</v>
       </c>
       <c r="D40" s="3">
-        <v>97.015709999999999</v>
+        <v>90.381559999999993</v>
       </c>
       <c r="E40" s="3">
-        <v>104.7722</v>
+        <v>101.3419</v>
       </c>
       <c r="F40" s="3">
-        <v>4.9110670000000002E-2</v>
+        <v>4.7444760000000002E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99800599999999995</v>
+        <v>0.9983805</v>
       </c>
       <c r="H40" s="3">
-        <v>6.8048590000000006E-2</v>
+        <v>6.5883029999999995E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.37941989999999998</v>
+        <v>0.54404039999999998</v>
       </c>
       <c r="J40" s="3">
-        <v>21.12398</v>
+        <v>19.472909999999999</v>
       </c>
       <c r="K40" s="3">
-        <v>2.6249739999999999</v>
+        <v>8.0433649999999997</v>
       </c>
       <c r="L40" s="3">
-        <v>8.2931620000000006</v>
+        <v>19.18196</v>
       </c>
       <c r="M40" s="3">
-        <v>2.336525</v>
+        <v>5.6550479999999999</v>
       </c>
       <c r="N40" s="3">
-        <v>0.73456770000000005</v>
+        <v>0.72021380000000002</v>
       </c>
       <c r="O40" s="3">
-        <v>996.35130000000004</v>
+        <v>996.3338</v>
       </c>
       <c r="P40" s="3">
         <v>46.85890655</v>
@@ -2162,49 +3158,49 @@
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45131.590115740742</v>
+        <v>45131.590358796297</v>
       </c>
       <c r="B41" s="3">
-        <v>9.8021919999999998</v>
+        <v>9.613531</v>
       </c>
       <c r="C41" s="3">
-        <v>11.15968</v>
+        <v>11.45496</v>
       </c>
       <c r="D41" s="3">
-        <v>97.007440000000003</v>
+        <v>90.345759999999999</v>
       </c>
       <c r="E41" s="3">
-        <v>104.7723</v>
+        <v>101.3481</v>
       </c>
       <c r="F41" s="3">
-        <v>4.9110689999999999E-2</v>
+        <v>4.7445399999999999E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99800639999999996</v>
+        <v>0.99838380000000004</v>
       </c>
       <c r="H41" s="3">
-        <v>6.8045679999999997E-2</v>
+        <v>6.5884109999999996E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.38424550000000002</v>
+        <v>0.54831189999999996</v>
       </c>
       <c r="J41" s="3">
-        <v>21.12068</v>
+        <v>19.458729999999999</v>
       </c>
       <c r="K41" s="3">
-        <v>2.6750090000000002</v>
+        <v>8.0785079999999994</v>
       </c>
       <c r="L41" s="3">
-        <v>8.4971720000000008</v>
+        <v>19.263059999999999</v>
       </c>
       <c r="M41" s="3">
-        <v>2.3987150000000002</v>
+        <v>5.6797570000000004</v>
       </c>
       <c r="N41" s="3">
-        <v>0.73586430000000003</v>
+        <v>0.72003399999999995</v>
       </c>
       <c r="O41" s="3">
-        <v>996.35</v>
+        <v>996.33249999999998</v>
       </c>
       <c r="P41" s="3">
         <v>46.85890655</v>
@@ -2216,49 +3212,49 @@
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45131.590127314812</v>
+        <v>45131.590370370373</v>
       </c>
       <c r="B42" s="3">
-        <v>9.8045960000000001</v>
+        <v>9.6103640000000006</v>
       </c>
       <c r="C42" s="3">
-        <v>11.16816</v>
+        <v>11.44933</v>
       </c>
       <c r="D42" s="3">
-        <v>96.999170000000007</v>
+        <v>90.309950000000001</v>
       </c>
       <c r="E42" s="3">
-        <v>104.7723</v>
+        <v>101.35420000000001</v>
       </c>
       <c r="F42" s="3">
-        <v>4.91107E-2</v>
+        <v>4.7446040000000002E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99800690000000003</v>
+        <v>0.99838720000000003</v>
       </c>
       <c r="H42" s="3">
-        <v>6.8042779999999997E-2</v>
+        <v>6.5885170000000007E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.3890711</v>
+        <v>0.5525833</v>
       </c>
       <c r="J42" s="3">
-        <v>21.117370000000001</v>
+        <v>19.44455</v>
       </c>
       <c r="K42" s="3">
-        <v>2.7250429999999999</v>
+        <v>8.1136520000000001</v>
       </c>
       <c r="L42" s="3">
-        <v>8.7011819999999993</v>
+        <v>19.344169999999998</v>
       </c>
       <c r="M42" s="3">
-        <v>2.460906</v>
+        <v>5.7044649999999999</v>
       </c>
       <c r="N42" s="3">
-        <v>0.73716099999999996</v>
+        <v>0.7198542</v>
       </c>
       <c r="O42" s="3">
-        <v>996.34879999999998</v>
+        <v>996.33119999999997</v>
       </c>
       <c r="P42" s="3">
         <v>46.85890655</v>
@@ -2270,49 +3266,49 @@
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45131.590138888889</v>
+        <v>45131.590381944443</v>
       </c>
       <c r="B43" s="3">
-        <v>9.8003719999999994</v>
+        <v>9.6445089999999993</v>
       </c>
       <c r="C43" s="3">
-        <v>11.164709999999999</v>
+        <v>11.932700000000001</v>
       </c>
       <c r="D43" s="3">
-        <v>96.760819999999995</v>
+        <v>90.301500000000004</v>
       </c>
       <c r="E43" s="3">
-        <v>104.7467</v>
+        <v>101.4667</v>
       </c>
       <c r="F43" s="3">
-        <v>4.909811E-2</v>
+        <v>4.7498520000000002E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99803050000000004</v>
+        <v>0.99841590000000002</v>
       </c>
       <c r="H43" s="3">
-        <v>6.8078749999999993E-2</v>
+        <v>6.6058850000000002E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.32160129999999998</v>
+        <v>0.5077661</v>
       </c>
       <c r="J43" s="3">
-        <v>21.07386</v>
+        <v>19.256309999999999</v>
       </c>
       <c r="K43" s="3">
-        <v>4.0313910000000002</v>
+        <v>8.6248280000000008</v>
       </c>
       <c r="L43" s="3">
-        <v>10.12739</v>
+        <v>20.522379999999998</v>
       </c>
       <c r="M43" s="3">
-        <v>2.8952290000000001</v>
+        <v>6.0638579999999997</v>
       </c>
       <c r="N43" s="3">
-        <v>0.71392230000000001</v>
+        <v>0.69679159999999996</v>
       </c>
       <c r="O43" s="3">
-        <v>996.36689999999999</v>
+        <v>996.39099999999996</v>
       </c>
       <c r="P43" s="3">
         <v>46.85890655</v>
@@ -2324,49 +3320,49 @@
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45131.590150462966</v>
+        <v>45131.59039351852</v>
       </c>
       <c r="B44" s="3">
-        <v>9.8021189999999994</v>
+        <v>9.6450080000000007</v>
       </c>
       <c r="C44" s="3">
-        <v>11.166230000000001</v>
+        <v>11.95336</v>
       </c>
       <c r="D44" s="3">
-        <v>96.746440000000007</v>
+        <v>90.289450000000002</v>
       </c>
       <c r="E44" s="3">
-        <v>104.7453</v>
+        <v>101.4742</v>
       </c>
       <c r="F44" s="3">
-        <v>4.9097420000000003E-2</v>
+        <v>4.7500470000000003E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99803200000000003</v>
+        <v>0.99841809999999998</v>
       </c>
       <c r="H44" s="3">
-        <v>6.8079420000000002E-2</v>
+        <v>6.606679E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.31941910000000001</v>
+        <v>0.50765119999999997</v>
       </c>
       <c r="J44" s="3">
-        <v>21.070440000000001</v>
+        <v>19.242920000000002</v>
       </c>
       <c r="K44" s="3">
-        <v>4.1200510000000001</v>
+        <v>8.6581530000000004</v>
       </c>
       <c r="L44" s="3">
-        <v>10.28457</v>
+        <v>20.599229999999999</v>
       </c>
       <c r="M44" s="3">
-        <v>2.9431189999999998</v>
+        <v>6.0872869999999999</v>
       </c>
       <c r="N44" s="3">
-        <v>0.71322890000000005</v>
+        <v>0.69560500000000003</v>
       </c>
       <c r="O44" s="3">
-        <v>996.36789999999996</v>
+        <v>996.39319999999998</v>
       </c>
       <c r="P44" s="3">
         <v>46.85890655</v>
@@ -2378,49 +3374,49 @@
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45131.590162037035</v>
+        <v>45131.590405092589</v>
       </c>
       <c r="B45" s="3">
-        <v>9.8038670000000003</v>
+        <v>9.6455070000000003</v>
       </c>
       <c r="C45" s="3">
-        <v>11.167759999999999</v>
+        <v>11.974019999999999</v>
       </c>
       <c r="D45" s="3">
-        <v>96.732060000000004</v>
+        <v>90.2774</v>
       </c>
       <c r="E45" s="3">
-        <v>104.7439</v>
+        <v>101.48180000000001</v>
       </c>
       <c r="F45" s="3">
-        <v>4.909674E-2</v>
+        <v>4.7502419999999997E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99803339999999996</v>
+        <v>0.99842030000000004</v>
       </c>
       <c r="H45" s="3">
-        <v>6.8080089999999996E-2</v>
+        <v>6.6074740000000007E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.31723689999999999</v>
+        <v>0.50753619999999999</v>
       </c>
       <c r="J45" s="3">
-        <v>21.067019999999999</v>
+        <v>19.22953</v>
       </c>
       <c r="K45" s="3">
-        <v>4.2087110000000001</v>
+        <v>8.691478</v>
       </c>
       <c r="L45" s="3">
-        <v>10.44176</v>
+        <v>20.676069999999999</v>
       </c>
       <c r="M45" s="3">
-        <v>2.9910079999999999</v>
+        <v>6.1107170000000002</v>
       </c>
       <c r="N45" s="3">
-        <v>0.71253560000000005</v>
+        <v>0.69441839999999999</v>
       </c>
       <c r="O45" s="3">
-        <v>996.36879999999996</v>
+        <v>996.39549999999997</v>
       </c>
       <c r="P45" s="3">
         <v>46.85890655</v>
@@ -2432,49 +3428,49 @@
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45131.590173611112</v>
+        <v>45131.590416666666</v>
       </c>
       <c r="B46" s="3">
-        <v>9.8254230000000007</v>
+        <v>9.7496690000000008</v>
       </c>
       <c r="C46" s="3">
-        <v>11.2257</v>
+        <v>11.705500000000001</v>
       </c>
       <c r="D46" s="3">
-        <v>96.601159999999993</v>
+        <v>90.199870000000004</v>
       </c>
       <c r="E46" s="3">
-        <v>104.7226</v>
+        <v>101.7017</v>
       </c>
       <c r="F46" s="3">
-        <v>4.9086270000000001E-2</v>
+        <v>4.7608400000000002E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99804539999999997</v>
+        <v>0.9984307</v>
       </c>
       <c r="H46" s="3">
-        <v>6.806798E-2</v>
+        <v>6.6119339999999999E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.30302430000000002</v>
+        <v>0.53406900000000002</v>
       </c>
       <c r="J46" s="3">
-        <v>20.947150000000001</v>
+        <v>19.136119999999998</v>
       </c>
       <c r="K46" s="3">
-        <v>4.6472680000000004</v>
+        <v>8.9956750000000003</v>
       </c>
       <c r="L46" s="3">
-        <v>11.400230000000001</v>
+        <v>21.37867</v>
       </c>
       <c r="M46" s="3">
-        <v>3.2831359999999998</v>
+        <v>6.3245899999999997</v>
       </c>
       <c r="N46" s="3">
-        <v>0.71961019999999998</v>
+        <v>0.68623959999999995</v>
       </c>
       <c r="O46" s="3">
-        <v>996.35170000000005</v>
+        <v>996.36310000000003</v>
       </c>
       <c r="P46" s="3">
         <v>46.85890655</v>
@@ -2486,49 +3482,49 @@
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45131.590185185189</v>
+        <v>45131.590428240743</v>
       </c>
       <c r="B47" s="3">
-        <v>9.8265370000000001</v>
+        <v>9.7557510000000001</v>
       </c>
       <c r="C47" s="3">
-        <v>11.228910000000001</v>
+        <v>11.701549999999999</v>
       </c>
       <c r="D47" s="3">
-        <v>96.588650000000001</v>
+        <v>90.195139999999995</v>
       </c>
       <c r="E47" s="3">
-        <v>104.7209</v>
+        <v>101.71559999999999</v>
       </c>
       <c r="F47" s="3">
-        <v>4.9085419999999998E-2</v>
+        <v>4.7615020000000001E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99804660000000001</v>
+        <v>0.99843190000000004</v>
       </c>
       <c r="H47" s="3">
-        <v>6.806806E-2</v>
+        <v>6.6125299999999998E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.30083599999999999</v>
+        <v>0.53457080000000001</v>
       </c>
       <c r="J47" s="3">
-        <v>20.939620000000001</v>
+        <v>19.127130000000001</v>
       </c>
       <c r="K47" s="3">
-        <v>4.7006709999999998</v>
+        <v>9.0226769999999998</v>
       </c>
       <c r="L47" s="3">
-        <v>11.48686</v>
+        <v>21.440989999999999</v>
       </c>
       <c r="M47" s="3">
-        <v>3.3095300000000001</v>
+        <v>6.3435740000000003</v>
       </c>
       <c r="N47" s="3">
-        <v>0.71950270000000005</v>
+        <v>0.68533120000000003</v>
       </c>
       <c r="O47" s="3">
-        <v>996.35109999999997</v>
+        <v>996.36260000000004</v>
       </c>
       <c r="P47" s="3">
         <v>46.85890655</v>
@@ -2540,49 +3536,49 @@
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45131.590196759258</v>
+        <v>45131.590439814812</v>
       </c>
       <c r="B48" s="3">
-        <v>9.8276509999999995</v>
+        <v>9.7618320000000001</v>
       </c>
       <c r="C48" s="3">
-        <v>11.23212</v>
+        <v>11.69759</v>
       </c>
       <c r="D48" s="3">
-        <v>96.576139999999995</v>
+        <v>90.190420000000003</v>
       </c>
       <c r="E48" s="3">
-        <v>104.7192</v>
+        <v>101.7294</v>
       </c>
       <c r="F48" s="3">
-        <v>4.9084570000000001E-2</v>
+        <v>4.762164E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99804780000000004</v>
+        <v>0.99843309999999996</v>
       </c>
       <c r="H48" s="3">
-        <v>6.8068149999999994E-2</v>
+        <v>6.6131259999999997E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.29864770000000002</v>
+        <v>0.53507260000000001</v>
       </c>
       <c r="J48" s="3">
-        <v>20.932079999999999</v>
+        <v>19.11814</v>
       </c>
       <c r="K48" s="3">
-        <v>4.7540740000000001</v>
+        <v>9.0496800000000004</v>
       </c>
       <c r="L48" s="3">
-        <v>11.57348</v>
+        <v>21.503299999999999</v>
       </c>
       <c r="M48" s="3">
-        <v>3.3359230000000002</v>
+        <v>6.3625579999999999</v>
       </c>
       <c r="N48" s="3">
-        <v>0.71939529999999996</v>
+        <v>0.68442289999999995</v>
       </c>
       <c r="O48" s="3">
-        <v>996.35050000000001</v>
+        <v>996.36220000000003</v>
       </c>
       <c r="P48" s="3">
         <v>46.85890655</v>
@@ -2594,49 +3590,49 @@
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45131.590208333335</v>
+        <v>45131.590451388889</v>
       </c>
       <c r="B49" s="3">
-        <v>9.6639510000000008</v>
+        <v>9.7056349999999991</v>
       </c>
       <c r="C49" s="3">
-        <v>11.290179999999999</v>
+        <v>11.950430000000001</v>
       </c>
       <c r="D49" s="3">
-        <v>94.617729999999995</v>
+        <v>90.152180000000001</v>
       </c>
       <c r="E49" s="3">
-        <v>102.88379999999999</v>
+        <v>101.7852</v>
       </c>
       <c r="F49" s="3">
-        <v>4.8194229999999998E-2</v>
+        <v>4.7648099999999999E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99812849999999997</v>
+        <v>0.99845459999999997</v>
       </c>
       <c r="H49" s="3">
-        <v>6.6412330000000006E-2</v>
+        <v>6.6235269999999999E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>0.43117080000000002</v>
+        <v>0.60607650000000002</v>
       </c>
       <c r="J49" s="3">
-        <v>20.794989999999999</v>
+        <v>19.023420000000002</v>
       </c>
       <c r="K49" s="3">
-        <v>5.5865020000000003</v>
+        <v>9.5655990000000006</v>
       </c>
       <c r="L49" s="3">
-        <v>13.514290000000001</v>
+        <v>22.693280000000001</v>
       </c>
       <c r="M49" s="3">
-        <v>3.9277009999999999</v>
+        <v>6.7252859999999997</v>
       </c>
       <c r="N49" s="3">
-        <v>0.72768140000000003</v>
+        <v>0.69194199999999995</v>
       </c>
       <c r="O49" s="3">
-        <v>996.39409999999998</v>
+        <v>996.39499999999998</v>
       </c>
       <c r="P49" s="3">
         <v>46.85890655</v>
@@ -2648,49 +3644,49 @@
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45131.590219907404</v>
+        <v>45131.590462962966</v>
       </c>
       <c r="B50" s="3">
-        <v>9.6555319999999991</v>
+        <v>9.7048799999999993</v>
       </c>
       <c r="C50" s="3">
-        <v>11.294700000000001</v>
+        <v>11.957750000000001</v>
       </c>
       <c r="D50" s="3">
-        <v>94.507639999999995</v>
+        <v>90.148409999999998</v>
       </c>
       <c r="E50" s="3">
-        <v>102.783</v>
+        <v>101.7927</v>
       </c>
       <c r="F50" s="3">
-        <v>4.8145350000000003E-2</v>
+        <v>4.7651689999999997E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99813320000000005</v>
+        <v>0.99845589999999995</v>
       </c>
       <c r="H50" s="3">
-        <v>6.632159E-2</v>
+        <v>6.624157E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.43808419999999998</v>
+        <v>0.61037560000000002</v>
       </c>
       <c r="J50" s="3">
-        <v>20.78473</v>
+        <v>19.01651</v>
       </c>
       <c r="K50" s="3">
-        <v>5.6427759999999996</v>
+        <v>9.5988430000000005</v>
       </c>
       <c r="L50" s="3">
-        <v>13.64406</v>
+        <v>22.76998</v>
       </c>
       <c r="M50" s="3">
-        <v>3.967266</v>
+        <v>6.7486579999999998</v>
       </c>
       <c r="N50" s="3">
-        <v>0.72829639999999995</v>
+        <v>0.69216690000000003</v>
       </c>
       <c r="O50" s="3">
-        <v>996.39610000000005</v>
+        <v>996.39599999999996</v>
       </c>
       <c r="P50" s="3">
         <v>46.85890655</v>
@@ -2702,49 +3698,49 @@
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45131.590231481481</v>
+        <v>45131.590474537035</v>
       </c>
       <c r="B51" s="3">
-        <v>9.6471140000000002</v>
+        <v>9.7041249999999994</v>
       </c>
       <c r="C51" s="3">
-        <v>11.29923</v>
+        <v>11.96508</v>
       </c>
       <c r="D51" s="3">
-        <v>94.397549999999995</v>
+        <v>90.144639999999995</v>
       </c>
       <c r="E51" s="3">
-        <v>102.6823</v>
+        <v>101.8002</v>
       </c>
       <c r="F51" s="3">
-        <v>4.8096470000000002E-2</v>
+        <v>4.7655280000000001E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99813799999999997</v>
+        <v>0.99845729999999999</v>
       </c>
       <c r="H51" s="3">
-        <v>6.6230849999999994E-2</v>
+        <v>6.624787E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>0.44499759999999999</v>
+        <v>0.61467479999999997</v>
       </c>
       <c r="J51" s="3">
-        <v>20.774470000000001</v>
+        <v>19.009609999999999</v>
       </c>
       <c r="K51" s="3">
-        <v>5.6990489999999996</v>
+        <v>9.6320859999999993</v>
       </c>
       <c r="L51" s="3">
-        <v>13.77383</v>
+        <v>22.84667</v>
       </c>
       <c r="M51" s="3">
-        <v>4.0068299999999999</v>
+        <v>6.7720310000000001</v>
       </c>
       <c r="N51" s="3">
-        <v>0.72891139999999999</v>
+        <v>0.6923918</v>
       </c>
       <c r="O51" s="3">
-        <v>996.3981</v>
+        <v>996.39700000000005</v>
       </c>
       <c r="P51" s="3">
         <v>46.85890655</v>
@@ -2756,49 +3752,49 @@
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45131.590243055558</v>
+        <v>45131.590486111112</v>
       </c>
       <c r="B52" s="3">
-        <v>9.6952189999999998</v>
+        <v>9.7033699999999996</v>
       </c>
       <c r="C52" s="3">
-        <v>11.423209999999999</v>
+        <v>11.97241</v>
       </c>
       <c r="D52" s="3">
-        <v>92.297520000000006</v>
+        <v>90.140860000000004</v>
       </c>
       <c r="E52" s="3">
-        <v>101.52249999999999</v>
+        <v>101.8078</v>
       </c>
       <c r="F52" s="3">
-        <v>4.753164E-2</v>
+        <v>4.7658869999999999E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99819829999999998</v>
+        <v>0.99845859999999997</v>
       </c>
       <c r="H52" s="3">
-        <v>6.5937179999999998E-2</v>
+        <v>6.6254170000000001E-2</v>
       </c>
       <c r="I52" s="3">
-        <v>0.4465807</v>
+        <v>0.61897400000000002</v>
       </c>
       <c r="J52" s="3">
-        <v>20.529630000000001</v>
+        <v>19.00271</v>
       </c>
       <c r="K52" s="3">
-        <v>6.0793290000000004</v>
+        <v>9.6653289999999998</v>
       </c>
       <c r="L52" s="3">
-        <v>14.65169</v>
+        <v>22.923369999999998</v>
       </c>
       <c r="M52" s="3">
-        <v>4.2741930000000004</v>
+        <v>6.7954030000000003</v>
       </c>
       <c r="N52" s="3">
-        <v>0.71299880000000004</v>
+        <v>0.69261669999999997</v>
       </c>
       <c r="O52" s="3">
-        <v>996.36350000000004</v>
+        <v>996.39800000000002</v>
       </c>
       <c r="P52" s="3">
         <v>46.85890655</v>
@@ -2810,49 +3806,49 @@
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45131.590254629627</v>
+        <v>45131.590497685182</v>
       </c>
       <c r="B53" s="3">
-        <v>9.6940310000000007</v>
+        <v>9.3916769999999996</v>
       </c>
       <c r="C53" s="3">
-        <v>11.431290000000001</v>
+        <v>12.204610000000001</v>
       </c>
       <c r="D53" s="3">
-        <v>92.138630000000006</v>
+        <v>90.137140000000002</v>
       </c>
       <c r="E53" s="3">
-        <v>101.4173</v>
+        <v>102.136</v>
       </c>
       <c r="F53" s="3">
-        <v>4.7480500000000002E-2</v>
+        <v>4.7815999999999997E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99820350000000002</v>
+        <v>0.99847490000000005</v>
       </c>
       <c r="H53" s="3">
-        <v>6.5882910000000003E-2</v>
+        <v>6.6396650000000002E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>0.44971179999999999</v>
+        <v>0.71640309999999996</v>
       </c>
       <c r="J53" s="3">
-        <v>20.51314</v>
+        <v>18.935490000000001</v>
       </c>
       <c r="K53" s="3">
-        <v>6.1199070000000004</v>
+        <v>9.9562849999999994</v>
       </c>
       <c r="L53" s="3">
-        <v>14.74531</v>
+        <v>23.59459</v>
       </c>
       <c r="M53" s="3">
-        <v>4.3027230000000003</v>
+        <v>6.9999659999999997</v>
       </c>
       <c r="N53" s="3">
-        <v>0.71233199999999997</v>
+        <v>0.70070209999999999</v>
       </c>
       <c r="O53" s="3">
-        <v>996.36249999999995</v>
+        <v>996.36360000000002</v>
       </c>
       <c r="P53" s="3">
         <v>46.85890655</v>
@@ -2864,49 +3860,49 @@
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45131.590266203704</v>
+        <v>45131.590509259258</v>
       </c>
       <c r="B54" s="3">
-        <v>9.6928420000000006</v>
+        <v>9.3750079999999993</v>
       </c>
       <c r="C54" s="3">
-        <v>11.43937</v>
+        <v>12.22165</v>
       </c>
       <c r="D54" s="3">
-        <v>91.979749999999996</v>
+        <v>90.136039999999994</v>
       </c>
       <c r="E54" s="3">
-        <v>101.3121</v>
+        <v>102.1537</v>
       </c>
       <c r="F54" s="3">
-        <v>4.7429369999999998E-2</v>
+        <v>4.7824470000000001E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>0.9982086</v>
+        <v>0.99847620000000004</v>
       </c>
       <c r="H54" s="3">
-        <v>6.5828639999999994E-2</v>
+        <v>6.6406090000000001E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>0.45284279999999999</v>
+        <v>0.72284360000000003</v>
       </c>
       <c r="J54" s="3">
-        <v>20.496639999999999</v>
+        <v>18.929960000000001</v>
       </c>
       <c r="K54" s="3">
-        <v>6.1604859999999997</v>
+        <v>9.9824970000000004</v>
       </c>
       <c r="L54" s="3">
-        <v>14.838939999999999</v>
+        <v>23.655049999999999</v>
       </c>
       <c r="M54" s="3">
-        <v>4.3312530000000002</v>
+        <v>7.0183939999999998</v>
       </c>
       <c r="N54" s="3">
-        <v>0.7116652</v>
+        <v>0.70126469999999996</v>
       </c>
       <c r="O54" s="3">
-        <v>996.36170000000004</v>
+        <v>996.36260000000004</v>
       </c>
       <c r="P54" s="3">
         <v>46.85890655</v>
@@ -2918,49 +3914,49 @@
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45131.590277777781</v>
+        <v>45131.590520833335</v>
       </c>
       <c r="B55" s="3">
-        <v>9.6848810000000007</v>
+        <v>9.3583379999999998</v>
       </c>
       <c r="C55" s="3">
-        <v>11.43586</v>
+        <v>12.23869</v>
       </c>
       <c r="D55" s="3">
-        <v>91.468239999999994</v>
+        <v>90.134950000000003</v>
       </c>
       <c r="E55" s="3">
-        <v>101.20820000000001</v>
+        <v>102.17140000000001</v>
       </c>
       <c r="F55" s="3">
-        <v>4.7377500000000003E-2</v>
+        <v>4.7832939999999997E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99825189999999997</v>
+        <v>0.99847750000000002</v>
       </c>
       <c r="H55" s="3">
-        <v>6.5773410000000004E-2</v>
+        <v>6.641553E-2</v>
       </c>
       <c r="I55" s="3">
-        <v>0.48619119999999999</v>
+        <v>0.72928409999999999</v>
       </c>
       <c r="J55" s="3">
-        <v>19.992439999999998</v>
+        <v>18.924430000000001</v>
       </c>
       <c r="K55" s="3">
-        <v>6.689737</v>
+        <v>10.008710000000001</v>
       </c>
       <c r="L55" s="3">
-        <v>16.059760000000001</v>
+        <v>23.715520000000001</v>
       </c>
       <c r="M55" s="3">
-        <v>4.7033529999999999</v>
+        <v>7.0368230000000001</v>
       </c>
       <c r="N55" s="3">
-        <v>0.72728459999999995</v>
+        <v>0.70182730000000004</v>
       </c>
       <c r="O55" s="3">
-        <v>996.34299999999996</v>
+        <v>996.36159999999995</v>
       </c>
       <c r="P55" s="3">
         <v>46.85890655</v>
@@ -2972,49 +3968,49 @@
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45131.590289351851</v>
+        <v>45131.590532407405</v>
       </c>
       <c r="B56" s="3">
-        <v>9.6853870000000004</v>
+        <v>9.5725119999999997</v>
       </c>
       <c r="C56" s="3">
-        <v>11.43858</v>
+        <v>12.13176</v>
       </c>
       <c r="D56" s="3">
-        <v>91.390630000000002</v>
+        <v>90.250209999999996</v>
       </c>
       <c r="E56" s="3">
-        <v>101.1742</v>
+        <v>102.31619999999999</v>
       </c>
       <c r="F56" s="3">
-        <v>4.7360899999999997E-2</v>
+        <v>4.7903010000000003E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99825569999999997</v>
+        <v>0.99847850000000005</v>
       </c>
       <c r="H56" s="3">
-        <v>6.5762009999999996E-2</v>
+        <v>6.6498130000000003E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>0.4881625</v>
+        <v>0.73708870000000004</v>
       </c>
       <c r="J56" s="3">
-        <v>19.959399999999999</v>
+        <v>18.835360000000001</v>
       </c>
       <c r="K56" s="3">
-        <v>6.7280899999999999</v>
+        <v>10.211499999999999</v>
       </c>
       <c r="L56" s="3">
-        <v>16.148250000000001</v>
+        <v>24.098870000000002</v>
       </c>
       <c r="M56" s="3">
-        <v>4.7303179999999996</v>
+        <v>7.1794000000000002</v>
       </c>
       <c r="N56" s="3">
-        <v>0.72777829999999999</v>
+        <v>0.71749430000000003</v>
       </c>
       <c r="O56" s="3">
-        <v>996.34119999999996</v>
+        <v>996.36069999999995</v>
       </c>
       <c r="P56" s="3">
         <v>46.85890655</v>
@@ -3026,49 +4022,49 @@
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45131.590300925927</v>
+        <v>45131.590543981481</v>
       </c>
       <c r="B57" s="3">
-        <v>9.6858920000000008</v>
+        <v>9.5768609999999992</v>
       </c>
       <c r="C57" s="3">
-        <v>11.4413</v>
+        <v>12.13128</v>
       </c>
       <c r="D57" s="3">
-        <v>91.313019999999995</v>
+        <v>90.255899999999997</v>
       </c>
       <c r="E57" s="3">
-        <v>101.14019999999999</v>
+        <v>102.3305</v>
       </c>
       <c r="F57" s="3">
-        <v>4.7344289999999997E-2</v>
+        <v>4.790991E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99825949999999997</v>
+        <v>0.99847889999999995</v>
       </c>
       <c r="H57" s="3">
-        <v>6.5750610000000001E-2</v>
+        <v>6.6505400000000006E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>0.49013370000000001</v>
+        <v>0.73959260000000004</v>
       </c>
       <c r="J57" s="3">
-        <v>19.926349999999999</v>
+        <v>18.829319999999999</v>
       </c>
       <c r="K57" s="3">
-        <v>6.7664429999999998</v>
+        <v>10.22845</v>
       </c>
       <c r="L57" s="3">
-        <v>16.236730000000001</v>
+        <v>24.133679999999998</v>
       </c>
       <c r="M57" s="3">
-        <v>4.7572830000000002</v>
+        <v>7.1913130000000001</v>
       </c>
       <c r="N57" s="3">
-        <v>0.72827209999999998</v>
+        <v>0.71845979999999998</v>
       </c>
       <c r="O57" s="3">
-        <v>996.33950000000004</v>
+        <v>996.36</v>
       </c>
       <c r="P57" s="3">
         <v>46.85890655</v>
@@ -3080,49 +4076,49 @@
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45131.590312499997</v>
+        <v>45131.590555555558</v>
       </c>
       <c r="B58" s="3">
-        <v>9.6726989999999997</v>
+        <v>9.5812109999999997</v>
       </c>
       <c r="C58" s="3">
-        <v>11.62571</v>
+        <v>12.130800000000001</v>
       </c>
       <c r="D58" s="3">
-        <v>90.935580000000002</v>
+        <v>90.261589999999998</v>
       </c>
       <c r="E58" s="3">
-        <v>101.2589</v>
+        <v>102.3449</v>
       </c>
       <c r="F58" s="3">
-        <v>4.7470680000000001E-2</v>
+        <v>4.7916809999999997E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99834279999999997</v>
+        <v>0.99847929999999996</v>
       </c>
       <c r="H58" s="3">
-        <v>6.5915319999999999E-2</v>
+        <v>6.6512669999999996E-2</v>
       </c>
       <c r="I58" s="3">
-        <v>0.45022259999999997</v>
+        <v>0.74209650000000005</v>
       </c>
       <c r="J58" s="3">
-        <v>19.669550000000001</v>
+        <v>18.82328</v>
       </c>
       <c r="K58" s="3">
-        <v>7.6505590000000003</v>
+        <v>10.24539</v>
       </c>
       <c r="L58" s="3">
-        <v>18.274750000000001</v>
+        <v>24.168489999999998</v>
       </c>
       <c r="M58" s="3">
-        <v>5.3788780000000003</v>
+        <v>7.2032259999999999</v>
       </c>
       <c r="N58" s="3">
-        <v>0.72070369999999995</v>
+        <v>0.71942519999999999</v>
       </c>
       <c r="O58" s="3">
-        <v>996.3664</v>
+        <v>996.35929999999996</v>
       </c>
       <c r="P58" s="3">
         <v>46.85890655</v>
@@ -3134,49 +4130,49 @@
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45131.590324074074</v>
+        <v>45131.590567129628</v>
       </c>
       <c r="B59" s="3">
-        <v>9.6717820000000003</v>
+        <v>9.5943909999999999</v>
       </c>
       <c r="C59" s="3">
-        <v>11.63556</v>
+        <v>12.13377</v>
       </c>
       <c r="D59" s="3">
-        <v>90.900760000000005</v>
+        <v>90.095830000000007</v>
       </c>
       <c r="E59" s="3">
-        <v>101.26090000000001</v>
+        <v>102.351</v>
       </c>
       <c r="F59" s="3">
-        <v>4.747523E-2</v>
+        <v>4.7918549999999997E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99834840000000002</v>
+        <v>0.99849639999999995</v>
       </c>
       <c r="H59" s="3">
-        <v>6.5921720000000003E-2</v>
+        <v>6.6526989999999994E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>0.44893919999999998</v>
+        <v>0.75011490000000003</v>
       </c>
       <c r="J59" s="3">
-        <v>19.643940000000001</v>
+        <v>18.735320000000002</v>
       </c>
       <c r="K59" s="3">
-        <v>7.7105379999999997</v>
+        <v>10.343669999999999</v>
       </c>
       <c r="L59" s="3">
-        <v>18.413039999999999</v>
+        <v>24.310490000000001</v>
       </c>
       <c r="M59" s="3">
-        <v>5.4210479999999999</v>
+        <v>7.2723259999999996</v>
       </c>
       <c r="N59" s="3">
-        <v>0.72065219999999997</v>
+        <v>0.70387719999999998</v>
       </c>
       <c r="O59" s="3">
-        <v>996.36739999999998</v>
+        <v>996.36829999999998</v>
       </c>
       <c r="P59" s="3">
         <v>46.85890655</v>
@@ -3188,49 +4184,49 @@
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45131.59033564815</v>
+        <v>45131.590578703705</v>
       </c>
       <c r="B60" s="3">
-        <v>9.6708649999999992</v>
+        <v>9.5994410000000006</v>
       </c>
       <c r="C60" s="3">
-        <v>11.64542</v>
+        <v>12.13185</v>
       </c>
       <c r="D60" s="3">
-        <v>90.865939999999995</v>
+        <v>90.089780000000005</v>
       </c>
       <c r="E60" s="3">
-        <v>101.2628</v>
+        <v>102.3545</v>
       </c>
       <c r="F60" s="3">
-        <v>4.7479779999999999E-2</v>
+        <v>4.7920200000000003E-2</v>
       </c>
       <c r="G60" s="3">
-        <v>0.99835379999999996</v>
+        <v>0.99849730000000003</v>
       </c>
       <c r="H60" s="3">
-        <v>6.5928120000000007E-2</v>
+        <v>6.6529569999999996E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>0.4476559</v>
+        <v>0.75076089999999995</v>
       </c>
       <c r="J60" s="3">
-        <v>19.61833</v>
+        <v>18.728860000000001</v>
       </c>
       <c r="K60" s="3">
-        <v>7.7705169999999999</v>
+        <v>10.35332</v>
       </c>
       <c r="L60" s="3">
-        <v>18.55132</v>
+        <v>24.326619999999998</v>
       </c>
       <c r="M60" s="3">
-        <v>5.4632170000000002</v>
+        <v>7.2791090000000001</v>
       </c>
       <c r="N60" s="3">
-        <v>0.72060069999999998</v>
+        <v>0.7034205</v>
       </c>
       <c r="O60" s="3">
-        <v>996.36839999999995</v>
+        <v>996.36879999999996</v>
       </c>
       <c r="P60" s="3">
         <v>46.85890655</v>
@@ -3242,49 +4238,49 @@
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45131.59034722222</v>
+        <v>45131.590590277781</v>
       </c>
       <c r="B61" s="3">
-        <v>9.6166979999999995</v>
+        <v>9.6044900000000002</v>
       </c>
       <c r="C61" s="3">
-        <v>11.460599999999999</v>
+        <v>12.12994</v>
       </c>
       <c r="D61" s="3">
-        <v>90.381559999999993</v>
+        <v>90.08372</v>
       </c>
       <c r="E61" s="3">
-        <v>101.3419</v>
+        <v>102.35809999999999</v>
       </c>
       <c r="F61" s="3">
-        <v>4.7444760000000002E-2</v>
+        <v>4.7921859999999997E-2</v>
       </c>
       <c r="G61" s="3">
-        <v>0.9983805</v>
+        <v>0.9984982</v>
       </c>
       <c r="H61" s="3">
-        <v>6.5883029999999995E-2</v>
+        <v>6.6532160000000007E-2</v>
       </c>
       <c r="I61" s="3">
-        <v>0.54404039999999998</v>
+        <v>0.75140669999999998</v>
       </c>
       <c r="J61" s="3">
-        <v>19.472909999999999</v>
+        <v>18.72241</v>
       </c>
       <c r="K61" s="3">
-        <v>8.0433649999999997</v>
+        <v>10.362970000000001</v>
       </c>
       <c r="L61" s="3">
-        <v>19.18196</v>
+        <v>24.342759999999998</v>
       </c>
       <c r="M61" s="3">
-        <v>5.6550479999999999</v>
+        <v>7.2858919999999996</v>
       </c>
       <c r="N61" s="3">
-        <v>0.72021380000000002</v>
+        <v>0.70296389999999997</v>
       </c>
       <c r="O61" s="3">
-        <v>996.3338</v>
+        <v>996.36919999999998</v>
       </c>
       <c r="P61" s="3">
         <v>46.85890655</v>
@@ -3293,1140 +4289,6 @@
         <v>-91.113716969999999</v>
       </c>
       <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45131.590358796297</v>
-      </c>
-      <c r="B62" s="3">
-        <v>9.613531</v>
-      </c>
-      <c r="C62" s="3">
-        <v>11.45496</v>
-      </c>
-      <c r="D62" s="3">
-        <v>90.345759999999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>101.3481</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.7445399999999999E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99838380000000004</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6.5884109999999996E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0.54831189999999996</v>
-      </c>
-      <c r="J62" s="3">
-        <v>19.458729999999999</v>
-      </c>
-      <c r="K62" s="3">
-        <v>8.0785079999999994</v>
-      </c>
-      <c r="L62" s="3">
-        <v>19.263059999999999</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5.6797570000000004</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.72003399999999995</v>
-      </c>
-      <c r="O62" s="3">
-        <v>996.33249999999998</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45131.590370370373</v>
-      </c>
-      <c r="B63" s="3">
-        <v>9.6103640000000006</v>
-      </c>
-      <c r="C63" s="3">
-        <v>11.44933</v>
-      </c>
-      <c r="D63" s="3">
-        <v>90.309950000000001</v>
-      </c>
-      <c r="E63" s="3">
-        <v>101.35420000000001</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.7446040000000002E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99838720000000003</v>
-      </c>
-      <c r="H63" s="3">
-        <v>6.5885170000000007E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0.5525833</v>
-      </c>
-      <c r="J63" s="3">
-        <v>19.44455</v>
-      </c>
-      <c r="K63" s="3">
-        <v>8.1136520000000001</v>
-      </c>
-      <c r="L63" s="3">
-        <v>19.344169999999998</v>
-      </c>
-      <c r="M63" s="3">
-        <v>5.7044649999999999</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.7198542</v>
-      </c>
-      <c r="O63" s="3">
-        <v>996.33119999999997</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45131.590381944443</v>
-      </c>
-      <c r="B64" s="3">
-        <v>9.6445089999999993</v>
-      </c>
-      <c r="C64" s="3">
-        <v>11.932700000000001</v>
-      </c>
-      <c r="D64" s="3">
-        <v>90.301500000000004</v>
-      </c>
-      <c r="E64" s="3">
-        <v>101.4667</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.7498520000000002E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99841590000000002</v>
-      </c>
-      <c r="H64" s="3">
-        <v>6.6058850000000002E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.5077661</v>
-      </c>
-      <c r="J64" s="3">
-        <v>19.256309999999999</v>
-      </c>
-      <c r="K64" s="3">
-        <v>8.6248280000000008</v>
-      </c>
-      <c r="L64" s="3">
-        <v>20.522379999999998</v>
-      </c>
-      <c r="M64" s="3">
-        <v>6.0638579999999997</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.69679159999999996</v>
-      </c>
-      <c r="O64" s="3">
-        <v>996.39099999999996</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45131.59039351852</v>
-      </c>
-      <c r="B65" s="3">
-        <v>9.6450080000000007</v>
-      </c>
-      <c r="C65" s="3">
-        <v>11.95336</v>
-      </c>
-      <c r="D65" s="3">
-        <v>90.289450000000002</v>
-      </c>
-      <c r="E65" s="3">
-        <v>101.4742</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.7500470000000003E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99841809999999998</v>
-      </c>
-      <c r="H65" s="3">
-        <v>6.606679E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.50765119999999997</v>
-      </c>
-      <c r="J65" s="3">
-        <v>19.242920000000002</v>
-      </c>
-      <c r="K65" s="3">
-        <v>8.6581530000000004</v>
-      </c>
-      <c r="L65" s="3">
-        <v>20.599229999999999</v>
-      </c>
-      <c r="M65" s="3">
-        <v>6.0872869999999999</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.69560500000000003</v>
-      </c>
-      <c r="O65" s="3">
-        <v>996.39319999999998</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45131.590405092589</v>
-      </c>
-      <c r="B66" s="3">
-        <v>9.6455070000000003</v>
-      </c>
-      <c r="C66" s="3">
-        <v>11.974019999999999</v>
-      </c>
-      <c r="D66" s="3">
-        <v>90.2774</v>
-      </c>
-      <c r="E66" s="3">
-        <v>101.48180000000001</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.7502419999999997E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99842030000000004</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6.6074740000000007E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0.50753619999999999</v>
-      </c>
-      <c r="J66" s="3">
-        <v>19.22953</v>
-      </c>
-      <c r="K66" s="3">
-        <v>8.691478</v>
-      </c>
-      <c r="L66" s="3">
-        <v>20.676069999999999</v>
-      </c>
-      <c r="M66" s="3">
-        <v>6.1107170000000002</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.69441839999999999</v>
-      </c>
-      <c r="O66" s="3">
-        <v>996.39549999999997</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45131.590416666666</v>
-      </c>
-      <c r="B67" s="3">
-        <v>9.7496690000000008</v>
-      </c>
-      <c r="C67" s="3">
-        <v>11.705500000000001</v>
-      </c>
-      <c r="D67" s="3">
-        <v>90.199870000000004</v>
-      </c>
-      <c r="E67" s="3">
-        <v>101.7017</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.7608400000000002E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.9984307</v>
-      </c>
-      <c r="H67" s="3">
-        <v>6.6119339999999999E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.53406900000000002</v>
-      </c>
-      <c r="J67" s="3">
-        <v>19.136119999999998</v>
-      </c>
-      <c r="K67" s="3">
-        <v>8.9956750000000003</v>
-      </c>
-      <c r="L67" s="3">
-        <v>21.37867</v>
-      </c>
-      <c r="M67" s="3">
-        <v>6.3245899999999997</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.68623959999999995</v>
-      </c>
-      <c r="O67" s="3">
-        <v>996.36310000000003</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45131.590428240743</v>
-      </c>
-      <c r="B68" s="3">
-        <v>9.7557510000000001</v>
-      </c>
-      <c r="C68" s="3">
-        <v>11.701549999999999</v>
-      </c>
-      <c r="D68" s="3">
-        <v>90.195139999999995</v>
-      </c>
-      <c r="E68" s="3">
-        <v>101.71559999999999</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.7615020000000001E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99843190000000004</v>
-      </c>
-      <c r="H68" s="3">
-        <v>6.6125299999999998E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0.53457080000000001</v>
-      </c>
-      <c r="J68" s="3">
-        <v>19.127130000000001</v>
-      </c>
-      <c r="K68" s="3">
-        <v>9.0226769999999998</v>
-      </c>
-      <c r="L68" s="3">
-        <v>21.440989999999999</v>
-      </c>
-      <c r="M68" s="3">
-        <v>6.3435740000000003</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.68533120000000003</v>
-      </c>
-      <c r="O68" s="3">
-        <v>996.36260000000004</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45131.590439814812</v>
-      </c>
-      <c r="B69" s="3">
-        <v>9.7618320000000001</v>
-      </c>
-      <c r="C69" s="3">
-        <v>11.69759</v>
-      </c>
-      <c r="D69" s="3">
-        <v>90.190420000000003</v>
-      </c>
-      <c r="E69" s="3">
-        <v>101.7294</v>
-      </c>
-      <c r="F69" s="3">
-        <v>4.762164E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.99843309999999996</v>
-      </c>
-      <c r="H69" s="3">
-        <v>6.6131259999999997E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0.53507260000000001</v>
-      </c>
-      <c r="J69" s="3">
-        <v>19.11814</v>
-      </c>
-      <c r="K69" s="3">
-        <v>9.0496800000000004</v>
-      </c>
-      <c r="L69" s="3">
-        <v>21.503299999999999</v>
-      </c>
-      <c r="M69" s="3">
-        <v>6.3625579999999999</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.68442289999999995</v>
-      </c>
-      <c r="O69" s="3">
-        <v>996.36220000000003</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45131.590451388889</v>
-      </c>
-      <c r="B70" s="3">
-        <v>9.7056349999999991</v>
-      </c>
-      <c r="C70" s="3">
-        <v>11.950430000000001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>90.152180000000001</v>
-      </c>
-      <c r="E70" s="3">
-        <v>101.7852</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4.7648099999999999E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99845459999999997</v>
-      </c>
-      <c r="H70" s="3">
-        <v>6.6235269999999999E-2</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0.60607650000000002</v>
-      </c>
-      <c r="J70" s="3">
-        <v>19.023420000000002</v>
-      </c>
-      <c r="K70" s="3">
-        <v>9.5655990000000006</v>
-      </c>
-      <c r="L70" s="3">
-        <v>22.693280000000001</v>
-      </c>
-      <c r="M70" s="3">
-        <v>6.7252859999999997</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0.69194199999999995</v>
-      </c>
-      <c r="O70" s="3">
-        <v>996.39499999999998</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>45131.590462962966</v>
-      </c>
-      <c r="B71" s="3">
-        <v>9.7048799999999993</v>
-      </c>
-      <c r="C71" s="3">
-        <v>11.957750000000001</v>
-      </c>
-      <c r="D71" s="3">
-        <v>90.148409999999998</v>
-      </c>
-      <c r="E71" s="3">
-        <v>101.7927</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4.7651689999999997E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.99845589999999995</v>
-      </c>
-      <c r="H71" s="3">
-        <v>6.624157E-2</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0.61037560000000002</v>
-      </c>
-      <c r="J71" s="3">
-        <v>19.01651</v>
-      </c>
-      <c r="K71" s="3">
-        <v>9.5988430000000005</v>
-      </c>
-      <c r="L71" s="3">
-        <v>22.76998</v>
-      </c>
-      <c r="M71" s="3">
-        <v>6.7486579999999998</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.69216690000000003</v>
-      </c>
-      <c r="O71" s="3">
-        <v>996.39599999999996</v>
-      </c>
-      <c r="P71" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>45131.590474537035</v>
-      </c>
-      <c r="B72" s="3">
-        <v>9.7041249999999994</v>
-      </c>
-      <c r="C72" s="3">
-        <v>11.96508</v>
-      </c>
-      <c r="D72" s="3">
-        <v>90.144639999999995</v>
-      </c>
-      <c r="E72" s="3">
-        <v>101.8002</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4.7655280000000001E-2</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.99845729999999999</v>
-      </c>
-      <c r="H72" s="3">
-        <v>6.624787E-2</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0.61467479999999997</v>
-      </c>
-      <c r="J72" s="3">
-        <v>19.009609999999999</v>
-      </c>
-      <c r="K72" s="3">
-        <v>9.6320859999999993</v>
-      </c>
-      <c r="L72" s="3">
-        <v>22.84667</v>
-      </c>
-      <c r="M72" s="3">
-        <v>6.7720310000000001</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0.6923918</v>
-      </c>
-      <c r="O72" s="3">
-        <v>996.39700000000005</v>
-      </c>
-      <c r="P72" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>45131.590486111112</v>
-      </c>
-      <c r="B73" s="3">
-        <v>9.7033699999999996</v>
-      </c>
-      <c r="C73" s="3">
-        <v>11.97241</v>
-      </c>
-      <c r="D73" s="3">
-        <v>90.140860000000004</v>
-      </c>
-      <c r="E73" s="3">
-        <v>101.8078</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4.7658869999999999E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.99845859999999997</v>
-      </c>
-      <c r="H73" s="3">
-        <v>6.6254170000000001E-2</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0.61897400000000002</v>
-      </c>
-      <c r="J73" s="3">
-        <v>19.00271</v>
-      </c>
-      <c r="K73" s="3">
-        <v>9.6653289999999998</v>
-      </c>
-      <c r="L73" s="3">
-        <v>22.923369999999998</v>
-      </c>
-      <c r="M73" s="3">
-        <v>6.7954030000000003</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.69261669999999997</v>
-      </c>
-      <c r="O73" s="3">
-        <v>996.39800000000002</v>
-      </c>
-      <c r="P73" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45131.590497685182</v>
-      </c>
-      <c r="B74" s="3">
-        <v>9.3916769999999996</v>
-      </c>
-      <c r="C74" s="3">
-        <v>12.204610000000001</v>
-      </c>
-      <c r="D74" s="3">
-        <v>90.137140000000002</v>
-      </c>
-      <c r="E74" s="3">
-        <v>102.136</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4.7815999999999997E-2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99847490000000005</v>
-      </c>
-      <c r="H74" s="3">
-        <v>6.6396650000000002E-2</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0.71640309999999996</v>
-      </c>
-      <c r="J74" s="3">
-        <v>18.935490000000001</v>
-      </c>
-      <c r="K74" s="3">
-        <v>9.9562849999999994</v>
-      </c>
-      <c r="L74" s="3">
-        <v>23.59459</v>
-      </c>
-      <c r="M74" s="3">
-        <v>6.9999659999999997</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0.70070209999999999</v>
-      </c>
-      <c r="O74" s="3">
-        <v>996.36360000000002</v>
-      </c>
-      <c r="P74" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45131.590509259258</v>
-      </c>
-      <c r="B75" s="3">
-        <v>9.3750079999999993</v>
-      </c>
-      <c r="C75" s="3">
-        <v>12.22165</v>
-      </c>
-      <c r="D75" s="3">
-        <v>90.136039999999994</v>
-      </c>
-      <c r="E75" s="3">
-        <v>102.1537</v>
-      </c>
-      <c r="F75" s="3">
-        <v>4.7824470000000001E-2</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.99847620000000004</v>
-      </c>
-      <c r="H75" s="3">
-        <v>6.6406090000000001E-2</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0.72284360000000003</v>
-      </c>
-      <c r="J75" s="3">
-        <v>18.929960000000001</v>
-      </c>
-      <c r="K75" s="3">
-        <v>9.9824970000000004</v>
-      </c>
-      <c r="L75" s="3">
-        <v>23.655049999999999</v>
-      </c>
-      <c r="M75" s="3">
-        <v>7.0183939999999998</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.70126469999999996</v>
-      </c>
-      <c r="O75" s="3">
-        <v>996.36260000000004</v>
-      </c>
-      <c r="P75" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>45131.590520833335</v>
-      </c>
-      <c r="B76" s="3">
-        <v>9.3583379999999998</v>
-      </c>
-      <c r="C76" s="3">
-        <v>12.23869</v>
-      </c>
-      <c r="D76" s="3">
-        <v>90.134950000000003</v>
-      </c>
-      <c r="E76" s="3">
-        <v>102.17140000000001</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4.7832939999999997E-2</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.99847750000000002</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6.641553E-2</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0.72928409999999999</v>
-      </c>
-      <c r="J76" s="3">
-        <v>18.924430000000001</v>
-      </c>
-      <c r="K76" s="3">
-        <v>10.008710000000001</v>
-      </c>
-      <c r="L76" s="3">
-        <v>23.715520000000001</v>
-      </c>
-      <c r="M76" s="3">
-        <v>7.0368230000000001</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.70182730000000004</v>
-      </c>
-      <c r="O76" s="3">
-        <v>996.36159999999995</v>
-      </c>
-      <c r="P76" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45131.590532407405</v>
-      </c>
-      <c r="B77" s="3">
-        <v>9.5725119999999997</v>
-      </c>
-      <c r="C77" s="3">
-        <v>12.13176</v>
-      </c>
-      <c r="D77" s="3">
-        <v>90.250209999999996</v>
-      </c>
-      <c r="E77" s="3">
-        <v>102.31619999999999</v>
-      </c>
-      <c r="F77" s="3">
-        <v>4.7903010000000003E-2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99847850000000005</v>
-      </c>
-      <c r="H77" s="3">
-        <v>6.6498130000000003E-2</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0.73708870000000004</v>
-      </c>
-      <c r="J77" s="3">
-        <v>18.835360000000001</v>
-      </c>
-      <c r="K77" s="3">
-        <v>10.211499999999999</v>
-      </c>
-      <c r="L77" s="3">
-        <v>24.098870000000002</v>
-      </c>
-      <c r="M77" s="3">
-        <v>7.1794000000000002</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0.71749430000000003</v>
-      </c>
-      <c r="O77" s="3">
-        <v>996.36069999999995</v>
-      </c>
-      <c r="P77" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45131.590543981481</v>
-      </c>
-      <c r="B78" s="3">
-        <v>9.5768609999999992</v>
-      </c>
-      <c r="C78" s="3">
-        <v>12.13128</v>
-      </c>
-      <c r="D78" s="3">
-        <v>90.255899999999997</v>
-      </c>
-      <c r="E78" s="3">
-        <v>102.3305</v>
-      </c>
-      <c r="F78" s="3">
-        <v>4.790991E-2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.99847889999999995</v>
-      </c>
-      <c r="H78" s="3">
-        <v>6.6505400000000006E-2</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0.73959260000000004</v>
-      </c>
-      <c r="J78" s="3">
-        <v>18.829319999999999</v>
-      </c>
-      <c r="K78" s="3">
-        <v>10.22845</v>
-      </c>
-      <c r="L78" s="3">
-        <v>24.133679999999998</v>
-      </c>
-      <c r="M78" s="3">
-        <v>7.1913130000000001</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0.71845979999999998</v>
-      </c>
-      <c r="O78" s="3">
-        <v>996.36</v>
-      </c>
-      <c r="P78" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45131.590555555558</v>
-      </c>
-      <c r="B79" s="3">
-        <v>9.5812109999999997</v>
-      </c>
-      <c r="C79" s="3">
-        <v>12.130800000000001</v>
-      </c>
-      <c r="D79" s="3">
-        <v>90.261589999999998</v>
-      </c>
-      <c r="E79" s="3">
-        <v>102.3449</v>
-      </c>
-      <c r="F79" s="3">
-        <v>4.7916809999999997E-2</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99847929999999996</v>
-      </c>
-      <c r="H79" s="3">
-        <v>6.6512669999999996E-2</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0.74209650000000005</v>
-      </c>
-      <c r="J79" s="3">
-        <v>18.82328</v>
-      </c>
-      <c r="K79" s="3">
-        <v>10.24539</v>
-      </c>
-      <c r="L79" s="3">
-        <v>24.168489999999998</v>
-      </c>
-      <c r="M79" s="3">
-        <v>7.2032259999999999</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.71942519999999999</v>
-      </c>
-      <c r="O79" s="3">
-        <v>996.35929999999996</v>
-      </c>
-      <c r="P79" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45131.590567129628</v>
-      </c>
-      <c r="B80" s="3">
-        <v>9.5943909999999999</v>
-      </c>
-      <c r="C80" s="3">
-        <v>12.13377</v>
-      </c>
-      <c r="D80" s="3">
-        <v>90.095830000000007</v>
-      </c>
-      <c r="E80" s="3">
-        <v>102.351</v>
-      </c>
-      <c r="F80" s="3">
-        <v>4.7918549999999997E-2</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99849639999999995</v>
-      </c>
-      <c r="H80" s="3">
-        <v>6.6526989999999994E-2</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0.75011490000000003</v>
-      </c>
-      <c r="J80" s="3">
-        <v>18.735320000000002</v>
-      </c>
-      <c r="K80" s="3">
-        <v>10.343669999999999</v>
-      </c>
-      <c r="L80" s="3">
-        <v>24.310490000000001</v>
-      </c>
-      <c r="M80" s="3">
-        <v>7.2723259999999996</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.70387719999999998</v>
-      </c>
-      <c r="O80" s="3">
-        <v>996.36829999999998</v>
-      </c>
-      <c r="P80" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45131.590578703705</v>
-      </c>
-      <c r="B81" s="3">
-        <v>9.5994410000000006</v>
-      </c>
-      <c r="C81" s="3">
-        <v>12.13185</v>
-      </c>
-      <c r="D81" s="3">
-        <v>90.089780000000005</v>
-      </c>
-      <c r="E81" s="3">
-        <v>102.3545</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4.7920200000000003E-2</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.99849730000000003</v>
-      </c>
-      <c r="H81" s="3">
-        <v>6.6529569999999996E-2</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0.75076089999999995</v>
-      </c>
-      <c r="J81" s="3">
-        <v>18.728860000000001</v>
-      </c>
-      <c r="K81" s="3">
-        <v>10.35332</v>
-      </c>
-      <c r="L81" s="3">
-        <v>24.326619999999998</v>
-      </c>
-      <c r="M81" s="3">
-        <v>7.2791090000000001</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.7034205</v>
-      </c>
-      <c r="O81" s="3">
-        <v>996.36879999999996</v>
-      </c>
-      <c r="P81" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45131.590590277781</v>
-      </c>
-      <c r="B82" s="3">
-        <v>9.6044900000000002</v>
-      </c>
-      <c r="C82" s="3">
-        <v>12.12994</v>
-      </c>
-      <c r="D82" s="3">
-        <v>90.08372</v>
-      </c>
-      <c r="E82" s="3">
-        <v>102.35809999999999</v>
-      </c>
-      <c r="F82" s="3">
-        <v>4.7921859999999997E-2</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.9984982</v>
-      </c>
-      <c r="H82" s="3">
-        <v>6.6532160000000007E-2</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0.75140669999999998</v>
-      </c>
-      <c r="J82" s="3">
-        <v>18.72241</v>
-      </c>
-      <c r="K82" s="3">
-        <v>10.362970000000001</v>
-      </c>
-      <c r="L82" s="3">
-        <v>24.342759999999998</v>
-      </c>
-      <c r="M82" s="3">
-        <v>7.2858919999999996</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.70296389999999997</v>
-      </c>
-      <c r="O82" s="3">
-        <v>996.36919999999998</v>
-      </c>
-      <c r="P82" s="3">
-        <v>46.85890655</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>-91.113716969999999</v>
-      </c>
-      <c r="R82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
